--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2285</v>
+        <v>93077</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuel Cavalcanti</t>
+          <t>Luna Aragão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>8948.379999999999</v>
+        <v>6327.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89673</v>
+        <v>24391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabrielly da Rocha</t>
+          <t>Enzo Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>9345.459999999999</v>
+        <v>6326.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14001</v>
+        <v>38391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Silva</t>
+          <t>Ana Júlia Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>3005.33</v>
+        <v>4155.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85750</v>
+        <v>87525</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Henrique Barros</t>
+          <t>João Vitor Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>4080.27</v>
+        <v>6459.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63315</v>
+        <v>6818</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. João da Costa</t>
+          <t>Luiz Gustavo Rezende</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>2700.69</v>
+        <v>7252.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94526</v>
+        <v>84678</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Elisa Ramos</t>
+          <t>Matheus Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>11709.68</v>
+        <v>7873.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41560</v>
+        <v>79345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bernardo Rezende</t>
+          <t>Maitê Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>4107.57</v>
+        <v>10701.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13035</v>
+        <v>58618</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nathan Cardoso</t>
+          <t>Julia Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>7958.54</v>
+        <v>11987.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59217</v>
+        <v>32875</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Bruna Correia</t>
+          <t>Dr. Luiz Felipe Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>9470.860000000001</v>
+        <v>8989.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37900</v>
+        <v>66181</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Beatriz Almeida</t>
+          <t>Ana Lívia Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>9771.52</v>
+        <v>10431.03</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93077</v>
+        <v>35190</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna Aragão</t>
+          <t>Diego Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,114 +494,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>6327.45</v>
+        <v>11336.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24391</v>
+        <v>70541</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Cardoso</t>
+          <t>Emanuella Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>6326.9</v>
+        <v>4450.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38391</v>
+        <v>66710</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Júlia Ribeiro</t>
+          <t>Antônio Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>4155.25</v>
+        <v>9721.139999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87525</v>
+        <v>1668</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor Nunes</t>
+          <t>Felipe Pires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>6459.39</v>
+        <v>11675.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6818</v>
+        <v>35071</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Rezende</t>
+          <t>João Guilherme Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>7252.32</v>
+        <v>5191.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84678</v>
+        <v>9226</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matheus Barbosa</t>
+          <t>Sra. Stella Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>7873.74</v>
+        <v>10412.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79345</v>
+        <v>6498</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maitê Monteiro</t>
+          <t>Isabella da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>10701.18</v>
+        <v>5044.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58618</v>
+        <v>5040</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia Monteiro</t>
+          <t>Theo Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>11987.46</v>
+        <v>3183.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32875</v>
+        <v>62431</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Luiz Felipe Alves</t>
+          <t>Gabriela Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>8989.27</v>
+        <v>5946.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66181</v>
+        <v>20993</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Lívia Viana</t>
+          <t>Raquel Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>10431.03</v>
+        <v>2545.07</v>
       </c>
     </row>
   </sheetData>
